--- a/Mod_CustomTalkSample/CustomTalk.xlsx
+++ b/Mod_CustomTalkSample/CustomTalk.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="214">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -370,17 +370,20 @@
     <t xml:space="preserve">cast</t>
   </si>
   <si>
-    <t xml:space="preserve">「いきナスよ、#2#3！」
-「#2#3！」</t>
-  </si>
-  <si>
-    <t xml:space="preserve">”#2#3!”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">一般的な魔法詠唱。 #1：唱えるキャラ　#3：属性　#2：魔法名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">General Magic Casting. #1: Chanting character #3: Attributes #2: Magic name</t>
+    <t xml:space="preserve">[IsRep2:癒]「癒しナス、#2#3！」
+[IsRep2:癒]「治癒しナス、#2#3！」
+[IsNormal]「いきナスよ、#2#3！」
+[IsNormal]「#2#3！」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[IsRep2:Heal]”Heal #2#3!”
+[IsNormal]”#2#3!”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">一般的な魔法詠唱。 #1：唱えるキャラ　#2：魔法名（軽傷治癒・火炎の）　#3：属性（手・矢）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">General Magic Casting. #1: Chanting character #2: Magic name #3: Attributes</t>
   </si>
   <si>
     <t xml:space="preserve">cast_hand</t>
@@ -647,6 +650,42 @@
   </si>
   <si>
     <t xml:space="preserve">If this is included in the text, it is not a candidate for an poison condition.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[IsRep1:***]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">これが文章中に含まれている場合、#1で置き換えられた文字列に***内で設定した文字列が部分一致しない場合候補から外れます。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If this is included in the text, if the string set in *** does not partially match the string replaced by #1, it will be excluded from the candidates.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[IsRep2:***]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">これが文章中に含まれている場合、#2で置き換えられた文字列に***内で設定した文字列が部分一致しない場合候補から外れます。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If this is included in the text, if the string set in *** does not partially match the string replaced by #2, it will be excluded from the candidates.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[IsRep3:***]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">これが文章中に含まれている場合、#3で置き換えられた文字列に***内で設定した文字列が部分一致しない場合候補から外れます。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If this is included in the text, if the string set in *** does not partially match the string replaced by #3, it will be excluded from the candidates.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[IsRep4:***]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">これが文章中に含まれている場合、#4で置き換えられた文字列に***内で設定した文字列が部分一致しない場合候補から外れます。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If this is included in the text, if the string set in *** does not partially match the string replaced by #4, it will be excluded from the candidates.</t>
   </si>
   <si>
     <t xml:space="preserve">[IsNormal]</t>
@@ -820,10 +859,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -832,11 +867,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1353,10 +1392,10 @@
       <c r="D1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="2" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1415,18 +1454,18 @@
         <v>36</v>
       </c>
       <c r="H5" s="2"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
@@ -1441,19 +1480,19 @@
       <c r="D6" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="4"/>
-      <c r="S6" s="4"/>
-      <c r="T6" s="4"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
@@ -1468,19 +1507,19 @@
       <c r="D7" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="4"/>
-      <c r="S7" s="4"/>
-      <c r="T7" s="4"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
     </row>
     <row r="8" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
@@ -1495,19 +1534,19 @@
       <c r="D8" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
-      <c r="R8" s="4"/>
-      <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
@@ -1522,19 +1561,19 @@
       <c r="D9" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
-      <c r="R9" s="4"/>
-      <c r="S9" s="4"/>
-      <c r="T9" s="4"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
     </row>
     <row r="10" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
@@ -1549,19 +1588,19 @@
       <c r="D10" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="4"/>
-      <c r="S10" s="4"/>
-      <c r="T10" s="4"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
     </row>
     <row r="11" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
@@ -1576,19 +1615,19 @@
       <c r="D11" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="4"/>
-      <c r="S11" s="4"/>
-      <c r="T11" s="4"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
     </row>
     <row r="12" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
@@ -1606,20 +1645,20 @@
       <c r="H12" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
       <c r="Q12" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
     </row>
     <row r="13" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
@@ -1637,20 +1676,20 @@
       <c r="H13" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
-      <c r="P13" s="4"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
       <c r="Q13" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="4"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
@@ -1668,20 +1707,20 @@
       <c r="H14" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
       <c r="Q14" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="4"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
     </row>
     <row r="15" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
@@ -1699,20 +1738,20 @@
       <c r="H15" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
       <c r="Q15" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4"/>
-      <c r="T15" s="4"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
@@ -1730,20 +1769,20 @@
       <c r="H16" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
       <c r="Q16" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="R16" s="4"/>
-      <c r="S16" s="4"/>
-      <c r="T16" s="4"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
@@ -1761,20 +1800,20 @@
       <c r="H17" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
       <c r="Q17" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="R17" s="4"/>
-      <c r="S17" s="4"/>
-      <c r="T17" s="4"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
@@ -1792,20 +1831,20 @@
       <c r="H18" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
       <c r="Q18" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="R18" s="4"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="4"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
@@ -1823,20 +1862,20 @@
       <c r="H19" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
       <c r="Q19" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="R19" s="4"/>
-      <c r="S19" s="4"/>
-      <c r="T19" s="4"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
     </row>
     <row r="20" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
@@ -1845,29 +1884,29 @@
       <c r="B20" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="4" t="s">
         <v>82</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="H20" s="6" t="s">
+      <c r="H20" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="6" t="s">
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="R20" s="4"/>
-      <c r="S20" s="4"/>
-      <c r="T20" s="4"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
     </row>
     <row r="21" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
@@ -1882,19 +1921,19 @@
       <c r="D21" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="4"/>
-      <c r="S21" s="4"/>
-      <c r="T21" s="4"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
     </row>
     <row r="22" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
@@ -1909,19 +1948,19 @@
       <c r="D22" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="4"/>
-      <c r="S22" s="4"/>
-      <c r="T22" s="4"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
     </row>
     <row r="23" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
@@ -1936,19 +1975,19 @@
       <c r="D23" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="4"/>
-      <c r="S23" s="4"/>
-      <c r="T23" s="4"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
     </row>
     <row r="24" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
@@ -1963,21 +2002,21 @@
       <c r="D24" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="4"/>
-      <c r="R24" s="4"/>
-      <c r="S24" s="4"/>
-      <c r="T24" s="4"/>
-    </row>
-    <row r="25" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+    </row>
+    <row r="25" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
         <v>13</v>
       </c>
@@ -1987,26 +2026,26 @@
       <c r="C25" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="3" t="s">
         <v>100</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="4"/>
-      <c r="P25" s="4"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
       <c r="Q25" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="R25" s="4"/>
-      <c r="S25" s="4"/>
-      <c r="T25" s="4"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
     </row>
     <row r="26" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
@@ -2024,20 +2063,20 @@
       <c r="H26" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
-      <c r="P26" s="4"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
       <c r="Q26" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="R26" s="4"/>
-      <c r="S26" s="4"/>
-      <c r="T26" s="4"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
     </row>
     <row r="27" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
@@ -2055,20 +2094,20 @@
       <c r="H27" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
-      <c r="O27" s="4"/>
-      <c r="P27" s="4"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
       <c r="Q27" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="R27" s="4"/>
-      <c r="S27" s="4"/>
-      <c r="T27" s="4"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
     </row>
     <row r="28" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
@@ -2086,20 +2125,20 @@
       <c r="H28" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
-      <c r="P28" s="4"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
       <c r="Q28" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="R28" s="4"/>
-      <c r="S28" s="4"/>
-      <c r="T28" s="4"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
     </row>
     <row r="29" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
@@ -2117,20 +2156,20 @@
       <c r="H29" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4"/>
-      <c r="O29" s="4"/>
-      <c r="P29" s="4"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
       <c r="Q29" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="R29" s="4"/>
-      <c r="S29" s="4"/>
-      <c r="T29" s="4"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="2"/>
     </row>
     <row r="30" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
@@ -2148,20 +2187,20 @@
       <c r="H30" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
-      <c r="N30" s="4"/>
-      <c r="O30" s="4"/>
-      <c r="P30" s="4"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
       <c r="Q30" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="R30" s="4"/>
-      <c r="S30" s="4"/>
-      <c r="T30" s="4"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2"/>
     </row>
     <row r="31" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
@@ -2179,20 +2218,20 @@
       <c r="H31" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="4"/>
-      <c r="N31" s="4"/>
-      <c r="O31" s="4"/>
-      <c r="P31" s="4"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
       <c r="Q31" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="R31" s="4"/>
-      <c r="S31" s="4"/>
-      <c r="T31" s="4"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="2"/>
+      <c r="T31" s="2"/>
     </row>
     <row r="32" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
@@ -2210,20 +2249,20 @@
       <c r="H32" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
-      <c r="M32" s="4"/>
-      <c r="N32" s="4"/>
-      <c r="O32" s="4"/>
-      <c r="P32" s="4"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
       <c r="Q32" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="R32" s="4"/>
-      <c r="S32" s="4"/>
-      <c r="T32" s="4"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="2"/>
+      <c r="T32" s="2"/>
     </row>
     <row r="33" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
@@ -2241,50 +2280,50 @@
       <c r="H33" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="4"/>
-      <c r="N33" s="4"/>
-      <c r="O33" s="4"/>
-      <c r="P33" s="4"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
       <c r="Q33" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="R33" s="4"/>
-      <c r="S33" s="4"/>
-      <c r="T33" s="4"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
-      <c r="M34" s="4"/>
-      <c r="N34" s="4"/>
-      <c r="O34" s="4"/>
-      <c r="P34" s="4"/>
-      <c r="Q34" s="4"/>
-      <c r="R34" s="4"/>
-      <c r="S34" s="4"/>
-      <c r="T34" s="4"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
-      <c r="L35" s="4"/>
-      <c r="M35" s="4"/>
-      <c r="N35" s="4"/>
-      <c r="O35" s="4"/>
-      <c r="P35" s="4"/>
-      <c r="Q35" s="4"/>
-      <c r="R35" s="4"/>
-      <c r="S35" s="4"/>
-      <c r="T35" s="4"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
     </row>
     <row r="1048475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2480,7 +2519,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -2488,212 +2527,256 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="31.71"/>
   </cols>
   <sheetData>
-    <row r="1" s="7" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="7" t="s">
+    <row r="1" s="6" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="6" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="2" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="8" t="s">
+    <row r="2" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="7" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="M3" s="0" t="s">
+      <c r="M3" s="1" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="M4" s="0" t="s">
+      <c r="M4" s="1" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="M5" s="0" t="s">
+      <c r="M5" s="1" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="M6" s="0" t="s">
+      <c r="M6" s="1" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="M7" s="0" t="s">
+      <c r="M7" s="1" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="M8" s="0" t="s">
+      <c r="M8" s="1" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="M9" s="0" t="s">
+      <c r="M9" s="1" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="M10" s="0" t="s">
+      <c r="M10" s="1" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="B11" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="M11" s="0" t="s">
+      <c r="M11" s="1" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="B12" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="M12" s="0" t="s">
+      <c r="M12" s="1" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="B13" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="M13" s="0" t="s">
+      <c r="M13" s="1" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="B14" s="0" t="s">
+      <c r="B14" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="M14" s="0" t="s">
+      <c r="M14" s="1" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="B15" s="0" t="s">
+      <c r="B15" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="M15" s="0" t="s">
+      <c r="M15" s="1" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="A17" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B17" s="0" t="s">
+      <c r="B17" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="M17" s="0" t="s">
+      <c r="M17" s="8" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="0" t="s">
+      <c r="A18" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="M18" s="0" t="s">
+      <c r="B18" s="8" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="20" s="8" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="8" t="s">
+      <c r="M18" s="8" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B21" s="0" t="s">
+      <c r="B19" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="M21" s="0" t="s">
+      <c r="M19" s="8" t="s">
         <v>198</v>
       </c>
     </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="M20" s="8" t="s">
+        <v>201</v>
+      </c>
+    </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>199</v>
-      </c>
-      <c r="B22" s="0" t="s">
-        <v>200</v>
-      </c>
-      <c r="M22" s="0" t="s">
-        <v>201</v>
+      <c r="A22" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="25" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="7" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="M27" s="1" t="s">
+        <v>213</v>
       </c>
     </row>
   </sheetData>

--- a/Mod_CustomTalkSample/CustomTalk.xlsx
+++ b/Mod_CustomTalkSample/CustomTalk.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="220">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -701,6 +701,24 @@
   </si>
   <si>
     <t xml:space="preserve">For example, you can use it if you want to completely separate the “when poisoned” and “when not poisoned” lines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[CharaName]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">この書式を置いた位置に、発言者の名前を表示します。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The speaker's name is displayed at the position where this form is placed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[PCName]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">この書式を置いた位置に、プレイヤーキャラクターの名前を表示します。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The name of the player character is displayed at the position where this format is placed.</t>
   </si>
   <si>
     <t xml:space="preserve">“CustomTalk_System”のシートで使用可能 / Available on “CustomTalk_System” sheets</t>
@@ -842,7 +860,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -872,10 +890,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2519,7 +2533,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M27"/>
+  <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -2693,10 +2707,10 @@
       <c r="A17" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="M17" s="8" t="s">
+      <c r="M17" s="2" t="s">
         <v>192</v>
       </c>
     </row>
@@ -2704,10 +2718,10 @@
       <c r="A18" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="M18" s="8" t="s">
+      <c r="M18" s="2" t="s">
         <v>195</v>
       </c>
     </row>
@@ -2715,10 +2729,10 @@
       <c r="A19" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="M19" s="8" t="s">
+      <c r="M19" s="2" t="s">
         <v>198</v>
       </c>
     </row>
@@ -2726,10 +2740,10 @@
       <c r="A20" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="M20" s="8" t="s">
+      <c r="M20" s="2" t="s">
         <v>201</v>
       </c>
     </row>
@@ -2752,31 +2766,57 @@
         <v>206</v>
       </c>
     </row>
-    <row r="25" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="7" t="s">
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="1"/>
+      <c r="M24" s="1"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
         <v>207</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="B27" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="M27" s="1" t="s">
+    </row>
+    <row r="28" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="7" t="s">
         <v>213</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="M30" s="1" t="s">
+        <v>219</v>
       </c>
     </row>
   </sheetData>

--- a/Mod_CustomTalkSample/CustomTalk.xlsx
+++ b/Mod_CustomTalkSample/CustomTalk.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="223">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -71,8 +71,8 @@
     <t xml:space="preserve">bep_customtalktest</t>
   </si>
   <si>
-    <t xml:space="preserve">[IsHungry]「おなかが減ったナス…」
-[IsHungry]「何か食べるものはないかナス？」
+    <t xml:space="preserve">[IsHungry][Sound:medal]「おなかが減ったナス…」
+[IsHungry][Sound:medal]「何か食べるものはないかナス？」
 [IsNormal]「ナスゥ？」
 [IsNormal]「ナスゥ…」
 [IsNormal]*ナスナス*</t>
@@ -719,6 +719,15 @@
   </si>
   <si>
     <t xml:space="preserve">The name of the player character is displayed at the position where this format is placed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Sound:***]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">この書式を置いた場合、***で指定したidの効果音を鳴らします。(同時に1つのみ可能)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If this format is placed, the sound effect of the id specified by *** will be played. (Only one is allowed at a time.)</t>
   </si>
   <si>
     <t xml:space="preserve">“CustomTalk_System”のシートで使用可能 / Available on “CustomTalk_System” sheets</t>
@@ -1122,7 +1131,7 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18.22"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="8.06"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="49.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="53.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="25.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="23.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="22.39"/>
@@ -2533,7 +2542,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M30"/>
+  <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -2792,19 +2801,19 @@
         <v>212</v>
       </c>
     </row>
-    <row r="28" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="7" t="s">
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
+      <c r="B27" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="M27" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="M29" s="1" t="s">
+    </row>
+    <row r="29" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="7" t="s">
         <v>216</v>
       </c>
     </row>
@@ -2817,6 +2826,17 @@
       </c>
       <c r="M30" s="1" t="s">
         <v>219</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="M31" s="1" t="s">
+        <v>222</v>
       </c>
     </row>
   </sheetData>

--- a/Mod_CustomTalkSample/CustomTalk.xlsx
+++ b/Mod_CustomTalkSample/CustomTalk.xlsx
@@ -10,10 +10,12 @@
   <sheets>
     <sheet name="CustomTalk_Vanilla" sheetId="1" state="visible" r:id="rId3"/>
     <sheet name="CustomTalk_System" sheetId="2" state="visible" r:id="rId4"/>
-    <sheet name="CustomTalk_CharaSetting" sheetId="3" state="visible" r:id="rId5"/>
-    <sheet name="書式一覧・Format List" sheetId="4" state="visible" r:id="rId6"/>
+    <sheet name="CustomTalk_CharaTalk" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="CustomTalk_CharaSetting" sheetId="4" state="visible" r:id="rId6"/>
+    <sheet name="書式一覧・Format List" sheetId="5" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames>
+    <definedName function="false" hidden="true" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">CustomTalk_CharaTalk!$A$2:$D$2</definedName>
     <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">CustomTalk_System!$A$2:$D$2</definedName>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">CustomTalk_Vanilla!$A$3:$L$3</definedName>
   </definedNames>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="234">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -509,6 +511,39 @@
   </si>
   <si>
     <t xml:space="preserve">Note：This text goes in after the ”cast”　summon #1：Chara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">barrel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">たるだナス。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Its Barrel.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CharaTalkは自動で「」がつくため「」を使用しない</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CharaTalk does not use “” because it automatically adds “”.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phrase_SpHealLight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">癒しナスよ、軽傷治癒！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Let’s Small Heal!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rumor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ナスゥ…何か用かナス？</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nasuu?</t>
   </si>
   <si>
     <t xml:space="preserve">charaid</t>
@@ -1006,6 +1041,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
   <a:themeElements>
@@ -2480,6 +2519,736 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:T1048576"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="20.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="49.24"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="25.45"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="1" width="11.53"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="T4" s="1"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="1"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="1"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="1"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="1"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="1"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="1"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="1"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="1"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="1"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="1"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="1"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="1"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="1"/>
+      <c r="C20" s="4"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="1"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="1"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="1"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="1"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="1"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="1"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="2"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="3"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="2"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="2"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="3"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="2"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="3"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="2"/>
+      <c r="T31" s="2"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="2"/>
+      <c r="B32" s="1"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="2"/>
+      <c r="T32" s="2"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="2"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
+    </row>
+    <row r="1048475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048478" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048479" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048480" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048481" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048482" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048483" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048484" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048485" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048486" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048487" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048488" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048490" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048491" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048492" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048493" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048494" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048495" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048496" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048501" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048503" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048504" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048506" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <autoFilter ref="A2:D2"/>
+  <conditionalFormatting sqref="A4:A1048576">
+    <cfRule type="duplicateValues" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1"/>
+  </conditionalFormatting>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,標準"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,標準"&amp;12ページ &amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -2498,7 +3267,7 @@
         <v>24</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2514,13 +3283,13 @@
         <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -2537,7 +3306,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -2545,7 +3314,7 @@
   <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A29" activeCellId="0" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2555,224 +3324,224 @@
   <sheetData>
     <row r="1" s="6" customFormat="true" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="1" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2781,62 +3550,62 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
     </row>
     <row r="29" s="7" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="7" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>
